--- a/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\TEST REPO\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8AEAE08-9B37-4E7E-9BE3-BEAE150310FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75595CB-8A25-4D75-8966-E2E24C579C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15450" yWindow="1095" windowWidth="13350" windowHeight="11835" xr2:uid="{34E8B858-753D-43B5-965A-19E4759962F2}"/>
+    <workbookView xWindow="15450" yWindow="1095" windowWidth="13350" windowHeight="11835" xr2:uid="{3A51EBF6-10E2-4ACB-B1C6-D7F7E869E8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A333E22-65A3-4C08-9EA1-250FA2273211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E32D18-6EEB-44DD-AC0A-B7C7D624E6FB}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\TEST REPO\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/016be9303c01b4f8/Documents/SCHOOL STUFF/05 Summer 2021/Capstone/malloyethan11/report_creation_program/report_creation_program/report_creation_program/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8AEAE08-9B37-4E7E-9BE3-BEAE150310FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22488861-E4B1-4E7E-8D3E-BFB1FF0FC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15450" yWindow="1095" windowWidth="13350" windowHeight="11835" xr2:uid="{34E8B858-753D-43B5-965A-19E4759962F2}"/>
+    <workbookView xWindow="-26835" yWindow="660" windowWidth="22980" windowHeight="13770" xr2:uid="{8B7631AE-5FF9-47B8-8A5E-99114D21431E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A333E22-65A3-4C08-9EA1-250FA2273211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6262397-9902-4170-9AD8-8752DF0A6E58}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/016be9303c01b4f8/Documents/SCHOOL STUFF/05 Summer 2021/Capstone/malloyethan11/report_creation_program/report_creation_program/report_creation_program/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallo\OneDrive\Documents\SCHOOL STUFF\05 Summer 2021\Capstone\malloyethan11\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22488861-E4B1-4E7E-8D3E-BFB1FF0FC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF5B21B-2A43-4336-83C1-49EB4EEF9104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26835" yWindow="660" windowWidth="22980" windowHeight="13770" xr2:uid="{8B7631AE-5FF9-47B8-8A5E-99114D21431E}"/>
+    <workbookView xWindow="-26490" yWindow="1005" windowWidth="22980" windowHeight="13770" xr2:uid="{A6371654-A946-44A5-BFE8-226E2CE8CBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>SKU</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>840029425619​</t>
+  </si>
+  <si>
+    <t>TEST01</t>
+  </si>
+  <si>
+    <t>Test Item</t>
+  </si>
+  <si>
+    <t>TestVendor</t>
+  </si>
+  <si>
+    <t>123456789101​</t>
   </si>
 </sst>
 </file>
@@ -474,8 +486,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6262397-9902-4170-9AD8-8752DF0A6E58}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2793097E-7EB9-48CE-8AEF-31AFA40A032A}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,7 +536,7 @@
         <v>16.5</v>
       </c>
       <c r="F2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -576,7 +588,7 @@
         <v>24.95</v>
       </c>
       <c r="F4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -602,7 +614,7 @@
         <v>49.95</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -635,6 +647,32 @@
       </c>
       <c r="H6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>11.1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallo\OneDrive\Documents\SCHOOL STUFF\05 Summer 2021\Capstone\malloyethan11\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF5B21B-2A43-4336-83C1-49EB4EEF9104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CE0B7E-65CE-4680-9529-347DEE834690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26490" yWindow="1005" windowWidth="22980" windowHeight="13770" xr2:uid="{A6371654-A946-44A5-BFE8-226E2CE8CBDC}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{14C25800-1D73-43F5-921A-A6B20EA56B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2793097E-7EB9-48CE-8AEF-31AFA40A032A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1383B337-0A0D-4088-AC9F-A88F1CD7E5DE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CE0B7E-65CE-4680-9529-347DEE834690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{698DE3D5-B810-4965-84C7-0D6742ACA8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{14C25800-1D73-43F5-921A-A6B20EA56B4F}"/>
+    <workbookView xWindow="31395" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{585A2DC4-FA2A-43C1-A97B-AFCCF6F0C6B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>SKU</t>
   </si>
@@ -60,55 +60,28 @@
     <t>UPC</t>
   </si>
   <si>
-    <t>WorthyIsTheLamb-Nash</t>
-  </si>
-  <si>
-    <t>Worthy is the Lamb: The Biblical Roots of the Mass</t>
-  </si>
-  <si>
-    <t>Thomas J. Nash</t>
-  </si>
-  <si>
-    <t>Ignatius Press</t>
-  </si>
-  <si>
-    <t>012345678901​</t>
-  </si>
-  <si>
-    <t>ChristianBrands-RC783</t>
-  </si>
-  <si>
-    <t>Our Lady of Guadalupe Rosary Holder</t>
-  </si>
-  <si>
-    <t>rosary holder statue</t>
-  </si>
-  <si>
-    <t>Christian Brands</t>
-  </si>
-  <si>
-    <t>123456789012​</t>
-  </si>
-  <si>
-    <t>ChristianBrands-79-3525</t>
-  </si>
-  <si>
-    <t>Da Vinci Last Supper Framed Print</t>
-  </si>
-  <si>
-    <t>Gerffert Collection</t>
-  </si>
-  <si>
-    <t>B&amp;H-081407011585-1</t>
-  </si>
-  <si>
-    <t>Pre-Filled Communion Fellowship Cup, Juice, and Wa</t>
+    <t>VI6680</t>
+  </si>
+  <si>
+    <t>12" Guardian Angel Praying with Soldier Statue</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Broadman Church Supplies</t>
+    <t>Village Gift Importers</t>
+  </si>
+  <si>
+    <t>840029434512​</t>
+  </si>
+  <si>
+    <t>VI6678</t>
+  </si>
+  <si>
+    <t>13" St. Michael Statue</t>
+  </si>
+  <si>
+    <t>840029427149​</t>
   </si>
   <si>
     <t>VI6525</t>
@@ -126,16 +99,28 @@
     <t>840029425619​</t>
   </si>
   <si>
-    <t>TEST01</t>
-  </si>
-  <si>
-    <t>Test Item</t>
-  </si>
-  <si>
-    <t>TestVendor</t>
-  </si>
-  <si>
-    <t>123456789101​</t>
+    <t>VI3550</t>
+  </si>
+  <si>
+    <t>Italian Leather Rosary Pouch</t>
+  </si>
+  <si>
+    <t>Teal</t>
+  </si>
+  <si>
+    <t>Adriatica Pelletteria</t>
+  </si>
+  <si>
+    <t>811895035363​</t>
+  </si>
+  <si>
+    <t>VGI-771</t>
+  </si>
+  <si>
+    <t>St. Joseph the Carpenter Statue</t>
+  </si>
+  <si>
+    <t>023867996286​</t>
   </si>
 </sst>
 </file>
@@ -486,8 +471,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1383B337-0A0D-4088-AC9F-A88F1CD7E5DE}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC21188-6583-420A-84B6-0C359159F46B}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,10 +518,10 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>16.5</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -553,48 +538,48 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>28.95</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>14.95</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>24.95</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,68 +596,42 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>49.95</v>
+        <v>14.81</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>14.95</v>
+        <v>274.95</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>11.1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/InventoryReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{698DE3D5-B810-4965-84C7-0D6742ACA8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17121223-D8B7-4073-AFC5-F6BDC029314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{585A2DC4-FA2A-43C1-A97B-AFCCF6F0C6B1}"/>
+    <workbookView xWindow="31395" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{841D1B08-BBA0-4BFB-A702-BA63F27E2941}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC21188-6583-420A-84B6-0C359159F46B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4B0479-BED4-406F-AA87-53392462D87D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
